--- a/src/test/resources/SINIF.xlsx
+++ b/src/test/resources/SINIF.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Ogrenci</t>
   </si>
@@ -66,12 +66,37 @@
   </si>
   <si>
     <t>Melik</t>
+  </si>
+  <si>
+    <t>Yas</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -449,8 +474,8 @@
       <c r="C2">
         <v>150</v>
       </c>
-      <c r="D2">
-        <v>45</v>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -463,8 +488,8 @@
       <c r="C3">
         <v>145</v>
       </c>
-      <c r="D3">
-        <v>52</v>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -477,8 +502,8 @@
       <c r="C4">
         <v>152</v>
       </c>
-      <c r="D4">
-        <v>53</v>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -491,8 +516,8 @@
       <c r="C5">
         <v>147</v>
       </c>
-      <c r="D5">
-        <v>47</v>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -505,8 +530,8 @@
       <c r="C6">
         <v>153</v>
       </c>
-      <c r="D6">
-        <v>56</v>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -519,8 +544,8 @@
       <c r="C7">
         <v>156</v>
       </c>
-      <c r="D7">
-        <v>49</v>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -533,8 +558,8 @@
       <c r="C8">
         <v>148</v>
       </c>
-      <c r="D8">
-        <v>50</v>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
